--- a/SampleApp/模版/Sample03_2.xlsx
+++ b/SampleApp/模版/Sample03_2.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC454015-A0B3-4554-8F0C-683BB4F9075F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1695E1-C3DE-4DCF-9084-FCA538047F50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="4935" windowWidth="17925" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="G10单元格是错误的" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">G10单元格是错误的!$B$4:$M$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$M$13</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -18,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
   <si>
     <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,16 +117,46 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="0.59999389629810485"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -160,11 +192,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -172,9 +266,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -586,7 +714,7 @@
   <dimension ref="B4:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:G12"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -595,41 +723,41 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
@@ -665,64 +793,62 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
@@ -776,4 +902,201 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DA0FC8-46BB-46B6-8C5E-E4B6582F46F9}">
+  <dimension ref="B4:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:C12"/>
+    <mergeCell ref="D10:E12"/>
+    <mergeCell ref="F10:G12"/>
+    <mergeCell ref="H10:I12"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>